--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\ET8\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B0124A-DF9A-4A39-BB13-9C659BDD889F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BA23D9-5BFB-4477-9EF6-FBB1FC493B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -44,54 +44,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UI图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用半径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanPickedUp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanDropped</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanCarried</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能否拾取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能否丢下</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能否携带</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SellPercentage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -104,46 +56,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>OnWorldSprite</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UseRadius</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_GrapeSeed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>葡萄种子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>体积</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_PotatoSeed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>土豆种子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EquipPosition</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -156,11 +72,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>普通的葡萄种子，品质一般般</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通的土豆种子，品质一般般</t>
+    <t>Icon图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币真不错</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验真不错</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -559,29 +495,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:P9"/>
+  <dimension ref="C3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="17.88671875" style="2" customWidth="1"/>
-    <col min="14" max="16" width="15.5546875" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -589,43 +522,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -633,43 +545,22 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
@@ -680,10 +571,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>6</v>
@@ -691,34 +582,13 @@
       <c r="I5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="3:16" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -726,25 +596,22 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>26</v>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="1">
-        <v>10</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="3:16" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -752,35 +619,24 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>30</v>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="1">
-        <v>10</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576" xr:uid="{56417CF4-711A-478F-B89D-9B2F334FB748}">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{080DDF01-AE45-4B88-96B9-94756E693EE3}">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
